--- a/data/Final_Drive_Sample.xlsx
+++ b/data/Final_Drive_Sample.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhilitp\GUI\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19896" windowHeight="7668"/>
   </bookViews>
   <sheets>
     <sheet name="Final Drive" sheetId="3" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="31">
   <si>
     <t>Data number</t>
   </si>
@@ -90,19 +95,31 @@
   </si>
   <si>
     <t>Efficiency</t>
+  </si>
+  <si>
+    <t>TA/PCT</t>
+  </si>
+  <si>
+    <t>Keerthivasan</t>
+  </si>
+  <si>
+    <t>TF MY24</t>
+  </si>
+  <si>
+    <t>No.7</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Optional Gear ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,158 +134,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="CorpoS"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,204 +148,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -657,251 +342,48 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -954,62 +436,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1267,25 +732,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A2:X10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.7809523809524" defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="18.77734375" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="22.1047619047619" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="18.7809523809524" style="2"/>
+    <col min="1" max="1" width="24.5546875" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="18.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21" spans="1:24">
+    <row r="1" spans="1:34" ht="21.6" thickBot="1"/>
+    <row r="2" spans="1:34" ht="21.6" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1358,8 +824,36 @@
       <c r="X2" s="4">
         <v>23</v>
       </c>
+      <c r="Y2" s="4">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="4">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="4">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="4">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>32</v>
+      </c>
+      <c r="AH2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="21" spans="1:24">
+    <row r="3" spans="1:34" s="1" customFormat="1" ht="21.6" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1432,8 +926,36 @@
       <c r="X3" s="6">
         <v>20211216</v>
       </c>
+      <c r="Y3" s="18">
+        <v>20221014</v>
+      </c>
+      <c r="Z3" s="18">
+        <v>20221014</v>
+      </c>
+      <c r="AA3" s="18">
+        <v>20221014</v>
+      </c>
+      <c r="AB3" s="18">
+        <v>20221014</v>
+      </c>
+      <c r="AC3" s="18">
+        <v>20221014</v>
+      </c>
+      <c r="AD3" s="18">
+        <v>20221014</v>
+      </c>
+      <c r="AE3" s="18">
+        <v>20221014</v>
+      </c>
+      <c r="AF3" s="18">
+        <v>20221014</v>
+      </c>
+      <c r="AG3" s="18">
+        <v>20221014</v>
+      </c>
+      <c r="AH3" s="6"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="21" spans="1:24">
+    <row r="4" spans="1:34" s="1" customFormat="1" ht="21.6" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1506,8 +1028,36 @@
       <c r="X4" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="Y4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AF4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH4" s="6"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="21" spans="1:24">
+    <row r="5" spans="1:34" s="1" customFormat="1" ht="21.6" thickBot="1">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1580,8 +1130,36 @@
       <c r="X5" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="Y5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH5" s="6"/>
     </row>
-    <row r="6" ht="42" customHeight="1" spans="1:24">
+    <row r="6" spans="1:34" ht="42" customHeight="1" thickBot="1">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -1654,8 +1232,36 @@
       <c r="X6" s="9" t="s">
         <v>10</v>
       </c>
+      <c r="Y6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH6" s="9"/>
     </row>
-    <row r="7" ht="40.5" spans="1:24">
+    <row r="7" spans="1:34" ht="42">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
@@ -1728,8 +1334,36 @@
       <c r="X7" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="Y7" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD7" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE7" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF7" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG7" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH7" s="11"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:34">
       <c r="A8" s="12" t="s">
         <v>19</v>
       </c>
@@ -1802,31 +1436,59 @@
       <c r="X8" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="Y8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF8" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH8" s="13"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:34">
       <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="14">
-        <v>5.714</v>
+        <v>5.7140000000000004</v>
       </c>
       <c r="C9" s="14">
-        <v>5.714</v>
+        <v>5.7140000000000004</v>
       </c>
       <c r="D9" s="14">
         <v>4.875</v>
       </c>
       <c r="E9" s="14">
-        <v>3.545</v>
+        <v>3.5449999999999999</v>
       </c>
       <c r="F9" s="14">
-        <v>3.727</v>
+        <v>3.7269999999999999</v>
       </c>
       <c r="G9" s="14">
         <v>3.9</v>
       </c>
       <c r="H9" s="14">
-        <v>4.111</v>
+        <v>4.1109999999999998</v>
       </c>
       <c r="I9" s="14">
         <v>4.444</v>
@@ -1835,28 +1497,28 @@
         <v>4.875</v>
       </c>
       <c r="K9" s="14">
-        <v>5.285</v>
+        <v>5.2850000000000001</v>
       </c>
       <c r="L9" s="14">
-        <v>4.111</v>
+        <v>4.1109999999999998</v>
       </c>
       <c r="M9" s="14">
         <v>4.444</v>
       </c>
       <c r="N9" s="14">
-        <v>4.111</v>
+        <v>4.1109999999999998</v>
       </c>
       <c r="O9" s="14">
         <v>4.444</v>
       </c>
       <c r="P9" s="14">
-        <v>4.111</v>
+        <v>4.1109999999999998</v>
       </c>
       <c r="Q9" s="14">
         <v>4.444</v>
       </c>
       <c r="R9" s="14">
-        <v>4.111</v>
+        <v>4.1109999999999998</v>
       </c>
       <c r="S9" s="14">
         <v>4.444</v>
@@ -1865,94 +1527,206 @@
         <v>4.875</v>
       </c>
       <c r="U9" s="14">
-        <v>5.285</v>
+        <v>5.2850000000000001</v>
       </c>
       <c r="V9" s="14">
-        <v>5.714</v>
+        <v>5.7140000000000004</v>
       </c>
       <c r="W9" s="14">
-        <v>6.166</v>
+        <v>6.1660000000000004</v>
       </c>
       <c r="X9" s="14">
-        <v>4.111</v>
-      </c>
+        <v>4.1109999999999998</v>
+      </c>
+      <c r="Y9" s="25">
+        <v>3.9089999999999998</v>
+      </c>
+      <c r="Z9" s="25">
+        <v>4.1109999999999998</v>
+      </c>
+      <c r="AA9" s="25">
+        <v>4.875</v>
+      </c>
+      <c r="AB9" s="25">
+        <v>5.2850000000000001</v>
+      </c>
+      <c r="AC9" s="25">
+        <v>4.875</v>
+      </c>
+      <c r="AD9" s="25">
+        <v>5.2850000000000001</v>
+      </c>
+      <c r="AE9" s="25">
+        <v>5.2850000000000001</v>
+      </c>
+      <c r="AF9" s="25">
+        <v>5.7140000000000004</v>
+      </c>
+      <c r="AG9" s="25">
+        <v>4.444</v>
+      </c>
+      <c r="AH9" s="14"/>
     </row>
-    <row r="10" ht="21" spans="1:24">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:34" ht="37.799999999999997" customHeight="1">
+      <c r="A10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z10" s="26">
+        <v>4.444</v>
+      </c>
+      <c r="AA10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB10" s="26">
+        <v>5.7140000000000004</v>
+      </c>
+      <c r="AC10" s="26">
+        <v>5.2850000000000001</v>
+      </c>
+      <c r="AD10" s="25">
+        <v>5.7140000000000004</v>
+      </c>
+      <c r="AE10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG10" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH10" s="22"/>
+    </row>
+    <row r="11" spans="1:34" ht="21.6" thickBot="1">
+      <c r="A11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="C10" s="16">
+      <c r="B11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="C11" s="16">
         <v>0.93</v>
       </c>
-      <c r="D10" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="J10" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="L10" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="M10" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="N10" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="O10" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="P10" s="16">
+      <c r="D11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="N11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="O11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="P11" s="16">
         <v>0.93</v>
       </c>
-      <c r="Q10" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="R10" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="S10" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="T10" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="U10" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="V10" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="W10" s="16">
-        <v>0.95</v>
-      </c>
-      <c r="X10" s="16">
-        <v>0.95</v>
-      </c>
+      <c r="Q11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="R11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="S11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="T11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="U11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="V11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="W11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="X11" s="16">
+        <v>0.95</v>
+      </c>
+      <c r="Y11" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="Z11" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="AA11" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="AB11" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="AC11" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="AD11" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="AE11" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="AF11" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="AG11" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="AH11" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>